--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3601131.649098561</v>
+        <v>3595928.315638243</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.143223172</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791247</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6593793.073957161</v>
+        <v>6592023.135785905</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>235.0329575839083</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>63.03121075240377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>1.894826399411825</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>122.6776979186518</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>84.8204924809544</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>76.74086563202125</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>100.3611118886831</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>86.44651497177502</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -981,16 +981,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>95.44372494926756</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>79.90244524473192</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>88.4211327316505</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>87.95308749070807</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>192.1391589860891</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>223.2003095543303</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>116.7238898641494</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>23.07869429521004</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.53490570290445</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,7 +1376,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>45.51424227857721</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
@@ -1421,10 +1421,10 @@
         <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
@@ -1433,7 +1433,7 @@
         <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
         <v>298.5345275142885</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>15.0885644957809</v>
       </c>
       <c r="E14" t="n">
         <v>304.5664151603045</v>
@@ -1625,7 +1625,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>30.26587136802667</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003578</v>
+        <v>280.4599644277187</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281736</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415738</v>
+        <v>265.5568836689347</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806958</v>
+        <v>282.5278558080566</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313969</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029517</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752491</v>
+        <v>204.81238610261</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453468</v>
+        <v>20.9239119118956</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443481</v>
+        <v>48.81858568179572</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622524</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158222</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495917</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274703</v>
+        <v>251.2592108548312</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623486</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346798</v>
+        <v>276.4959681620406</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046313</v>
+        <v>67.32610467782405</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074554</v>
+        <v>52.47323292810646</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258526</v>
+        <v>38.04694813994618</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546438</v>
+        <v>37.97339019282529</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523164</v>
+        <v>39.72284161259256</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762378</v>
+        <v>50.5416795349847</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419582</v>
+        <v>37.89393170155674</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536775</v>
+        <v>15.73364728272867</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982367</v>
+        <v>6.632145647184586</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535099</v>
+        <v>84.7580891527119</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595231</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865929</v>
+        <v>166.5545700139538</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734589</v>
+        <v>147.2897179008198</v>
       </c>
       <c r="W34" t="n">
-        <v>170.910726694209</v>
+        <v>164.4672642215699</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409216</v>
+        <v>115.7096851682825</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175979</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0229587840512</v>
+        <v>25.29325435606449</v>
       </c>
       <c r="C41" t="n">
-        <v>292.776907011867</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252672</v>
+        <v>285.119878025267</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150903</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
-        <v>312.5642884866451</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589425</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822811</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812823</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459458</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995157</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332851</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111637</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
-        <v>289.091239546042</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>89.75286500247246</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415656</v>
+        <v>86.88909903415639</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443897</v>
+        <v>72.03622728443879</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627869</v>
+        <v>57.60994249627852</v>
       </c>
       <c r="E43" t="n">
-        <v>57.5363845491578</v>
+        <v>57.53638454915763</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892507</v>
+        <v>59.2858359689249</v>
       </c>
       <c r="G43" t="n">
-        <v>70.1046738913172</v>
+        <v>70.10467389131703</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788925</v>
+        <v>57.45692605788908</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906118</v>
+        <v>35.29664163906101</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.1951400035171</v>
+        <v>26.19514000351693</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090444</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432165</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702863</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571523</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779024</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.272679524615</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012914</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840512</v>
+        <v>56.48829783093321</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252672</v>
+        <v>285.119878025267</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643892</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150903</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
-        <v>312.5642884866451</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>8.755339790521138</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822808</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812821</v>
+        <v>68.38158003812806</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459458</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995157</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332851</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111637</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X44" t="n">
-        <v>289.091239546042</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183732</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415653</v>
+        <v>86.88909903415639</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443894</v>
+        <v>72.03622728443879</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627866</v>
+        <v>57.60994249627852</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915777</v>
+        <v>57.53638454915763</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892504</v>
+        <v>59.2858359689249</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131718</v>
+        <v>70.10467389131703</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788922</v>
+        <v>57.45692605788908</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906115</v>
+        <v>35.29664163906101</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351707</v>
+        <v>26.19514000351693</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090444</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432165</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702863</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571523</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779024</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.272679524615</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012913</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1009.428170269644</v>
+        <v>1787.509267068578</v>
       </c>
       <c r="C2" t="n">
-        <v>1009.428170269644</v>
+        <v>1394.333765571509</v>
       </c>
       <c r="D2" t="n">
-        <v>1009.428170269644</v>
+        <v>1008.892636788176</v>
       </c>
       <c r="E2" t="n">
-        <v>606.844645386189</v>
+        <v>1008.892636788176</v>
       </c>
       <c r="F2" t="n">
-        <v>189.9502069161667</v>
+        <v>591.9981983181542</v>
       </c>
       <c r="G2" t="n">
-        <v>180.827855444574</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703878</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K2" t="n">
-        <v>187.1405114458669</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L2" t="n">
-        <v>187.1405114458669</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="M2" t="n">
-        <v>712.9634008417218</v>
+        <v>550.6768587708627</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.46427368714</v>
+        <v>1051.843641766313</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579469</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.69136671099</v>
+        <v>1840.070734790163</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137461</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="S2" t="n">
-        <v>2086.544013137461</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="T2" t="n">
-        <v>1863.043410696877</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="U2" t="n">
-        <v>1863.043410696877</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="V2" t="n">
-        <v>1863.043410696877</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="W2" t="n">
-        <v>1863.043410696877</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="X2" t="n">
-        <v>1473.590805629934</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="Y2" t="n">
-        <v>1409.922915981041</v>
+        <v>2024.916294931112</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>711.7677542985501</v>
+        <v>839.8643090386531</v>
       </c>
       <c r="C3" t="n">
-        <v>561.1135238586423</v>
+        <v>689.2100785987453</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202257</v>
       </c>
       <c r="E3" t="n">
-        <v>424.66703296953</v>
+        <v>422.6746203311134</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526618</v>
+        <v>298.2428142142452</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861097</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512718</v>
+        <v>89.88557988671064</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703878</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="M3" t="n">
-        <v>1484.733842113161</v>
+        <v>1118.128143219264</v>
       </c>
       <c r="N3" t="n">
-        <v>2010.556731509016</v>
+        <v>1118.128143219264</v>
       </c>
       <c r="O3" t="n">
-        <v>2124.536926851939</v>
+        <v>1619.294926214714</v>
       </c>
       <c r="P3" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750003</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649872</v>
+        <v>2023.0023288711</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848781</v>
+        <v>2023.0023288711</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527422</v>
+        <v>1812.939185549742</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898489</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W3" t="n">
-        <v>1232.185383313993</v>
+        <v>1360.281938054095</v>
       </c>
       <c r="X3" t="n">
-        <v>1042.878305664004</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y3" t="n">
-        <v>863.5640887395115</v>
+        <v>991.6606434796145</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.5434227614405</v>
+        <v>679.2213038579428</v>
       </c>
       <c r="C4" t="n">
-        <v>531.5434227614405</v>
+        <v>509.016185923932</v>
       </c>
       <c r="D4" t="n">
-        <v>531.5434227614405</v>
+        <v>353.3830728264468</v>
       </c>
       <c r="E4" t="n">
-        <v>531.5434227614405</v>
+        <v>197.8242606856493</v>
       </c>
       <c r="F4" t="n">
-        <v>374.2174879744134</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="G4" t="n">
-        <v>205.963434073859</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H4" t="n">
-        <v>205.963434073859</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I4" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703878</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>820.0367717111683</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T4" t="n">
-        <v>531.5434227614405</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U4" t="n">
-        <v>531.5434227614405</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="V4" t="n">
-        <v>531.5434227614405</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="W4" t="n">
-        <v>531.5434227614405</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="X4" t="n">
-        <v>531.5434227614405</v>
+        <v>864.429322549244</v>
       </c>
       <c r="Y4" t="n">
-        <v>531.5434227614405</v>
+        <v>864.429322549244</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1265.723434016127</v>
+        <v>544.1710393609037</v>
       </c>
       <c r="C5" t="n">
-        <v>872.5479325190579</v>
+        <v>150.9955378638343</v>
       </c>
       <c r="D5" t="n">
-        <v>872.5479325190579</v>
+        <v>150.9955378638343</v>
       </c>
       <c r="E5" t="n">
-        <v>872.5479325190579</v>
+        <v>150.9955378638343</v>
       </c>
       <c r="F5" t="n">
-        <v>455.6534940490357</v>
+        <v>49.62067737021501</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703878</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703878</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703878</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733287</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>546.1228674733287</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M5" t="n">
-        <v>1071.945756869184</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="N5" t="n">
-        <v>1499.651765818662</v>
+        <v>1051.843641766313</v>
       </c>
       <c r="O5" t="n">
-        <v>1939.69136671099</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.69136671099</v>
+        <v>1840.070734790163</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851939</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S5" t="n">
-        <v>2124.536926851939</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="T5" t="n">
-        <v>2124.536926851939</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="U5" t="n">
-        <v>2124.536926851939</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="V5" t="n">
-        <v>2124.536926851939</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.537891820226</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.537891820226</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1666.218179727524</v>
+        <v>944.6657850723007</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>784.8815919408266</v>
+        <v>505.9467430955069</v>
       </c>
       <c r="C6" t="n">
-        <v>634.2273615009188</v>
+        <v>355.2925126555991</v>
       </c>
       <c r="D6" t="n">
-        <v>504.1383941223992</v>
+        <v>225.2035452770795</v>
       </c>
       <c r="E6" t="n">
-        <v>367.6919032332869</v>
+        <v>128.7957422980213</v>
       </c>
       <c r="F6" t="n">
-        <v>243.2600971164187</v>
+        <v>128.7957422980213</v>
       </c>
       <c r="G6" t="n">
-        <v>123.2002791882831</v>
+        <v>128.7957422980213</v>
       </c>
       <c r="H6" t="n">
-        <v>42.49073853703878</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703878</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703878</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>42.49073853703878</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>42.49073853703878</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="M6" t="n">
-        <v>568.3136279328936</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896698</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580651</v>
+        <v>1384.929834659824</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297048</v>
+        <v>1790.551203376221</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750003</v>
+        <v>2000.999251829176</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649872</v>
+        <v>1866.068574729045</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.705394848781</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U6" t="n">
-        <v>1578.642251527422</v>
+        <v>1479.021619606595</v>
       </c>
       <c r="V6" t="n">
-        <v>1356.102249898489</v>
+        <v>1256.481617977662</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.985004031776</v>
+        <v>1026.364372110949</v>
       </c>
       <c r="X6" t="n">
-        <v>936.677926381788</v>
+        <v>837.057294460961</v>
       </c>
       <c r="Y6" t="n">
-        <v>936.677926381788</v>
+        <v>657.7430775364683</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>475.1423320819648</v>
+        <v>210.703443832633</v>
       </c>
       <c r="C7" t="n">
-        <v>475.1423320819648</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="D7" t="n">
-        <v>319.5092189844796</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="E7" t="n">
-        <v>319.5092189844796</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="F7" t="n">
-        <v>162.1832841974525</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="G7" t="n">
-        <v>162.1832841974525</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1832841974525</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I7" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703878</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>741.1216772611406</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>741.1216772611406</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U7" t="n">
-        <v>741.1216772611406</v>
+        <v>853.1038459243078</v>
       </c>
       <c r="V7" t="n">
-        <v>475.1423320819648</v>
+        <v>853.1038459243078</v>
       </c>
       <c r="W7" t="n">
-        <v>475.1423320819648</v>
+        <v>853.1038459243078</v>
       </c>
       <c r="X7" t="n">
-        <v>475.1423320819648</v>
+        <v>619.0235237072909</v>
       </c>
       <c r="Y7" t="n">
-        <v>475.1423320819648</v>
+        <v>395.9114625239343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>804.2899563655524</v>
+        <v>1141.217531504963</v>
       </c>
       <c r="C8" t="n">
-        <v>804.2899563655524</v>
+        <v>748.0420300078936</v>
       </c>
       <c r="D8" t="n">
-        <v>610.2099977937452</v>
+        <v>748.0420300078936</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>748.0420300078936</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>735.1879955782754</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,22 +4802,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>666.9511603618604</v>
+        <v>758.8032691226673</v>
       </c>
       <c r="M8" t="n">
-        <v>1212.952060406441</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.763344043903</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1943.38222045283</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1601.275411156348</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>1601.275411156348</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>1601.275411156348</v>
+        <v>1938.202986295759</v>
       </c>
       <c r="Y8" t="n">
-        <v>1204.784702076949</v>
+        <v>1541.71227721636</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4887,7 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0311263475785</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
         <v>1374.529131354181</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>622.0429194582225</v>
       </c>
       <c r="U10" t="n">
-        <v>336.6041277001235</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="V10" t="n">
-        <v>70.62478252094769</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1871.211875180718</v>
+        <v>1609.543013684024</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.977054970837</v>
+        <v>1311.308193474143</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>1020.807745977999</v>
       </c>
       <c r="E11" t="n">
-        <v>974.833763878426</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955921</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G11" t="n">
         <v>334.6579324707834</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.823590280621</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002408</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993114</v>
+        <v>2787.217383424722</v>
       </c>
       <c r="W11" t="n">
-        <v>2221.78706024859</v>
+        <v>2511.159029680198</v>
       </c>
       <c r="X11" t="n">
-        <v>2221.78706024859</v>
+        <v>2216.647105900443</v>
       </c>
       <c r="Y11" t="n">
-        <v>1920.237032456379</v>
+        <v>1915.097078108232</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551006</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082781</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979812</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E13" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445333</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311672</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5227,22 +5227,22 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U13" t="n">
         <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553818</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592135</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1871.211875180717</v>
+        <v>1552.55596630239</v>
       </c>
       <c r="C14" t="n">
-        <v>1572.977054970836</v>
+        <v>1254.321146092509</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.476607474692</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784251</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955912</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2905.82359028062</v>
+        <v>2977.396464052381</v>
       </c>
       <c r="U14" t="n">
-        <v>2745.011542002408</v>
+        <v>2977.396464052381</v>
       </c>
       <c r="V14" t="n">
-        <v>2497.845413993114</v>
+        <v>2730.230336043088</v>
       </c>
       <c r="W14" t="n">
-        <v>2467.273826752683</v>
+        <v>2454.171982298564</v>
       </c>
       <c r="X14" t="n">
-        <v>2172.761902972928</v>
+        <v>2159.660058518809</v>
       </c>
       <c r="Y14" t="n">
-        <v>1871.211875180717</v>
+        <v>1858.110030726598</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5434,13 +5434,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362516</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757668</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791398</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
         <v>836.8050913469772</v>
@@ -5492,40 +5492,40 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099307</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,13 +5534,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5592,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5680,43 +5680,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485496</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
         <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296516</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5783,7 +5783,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5792,7 +5792,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1458.313011372373</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,19 +5911,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
         <v>1256.420003061516</v>
@@ -6236,22 +6236,22 @@
         <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755553</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377455</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.58288023855</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
         <v>3468.110152452356</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
@@ -6391,7 +6391,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>556.9309448458635</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1184.702594472545</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>1840.480565683104</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>2357.000848274085</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2357.000848274085</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6622,13 +6622,13 @@
         <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084637</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600043</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144918</v>
+        <v>890.2201666674337</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423738</v>
+        <v>590.5275805474762</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282811</v>
+        <v>294.5666773855442</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267642</v>
+        <v>87.6854793020992</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918735</v>
+        <v>326.0695231417556</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193353</v>
+        <v>709.6729279093349</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037864</v>
+        <v>1202.993219627864</v>
       </c>
       <c r="M32" t="n">
-        <v>1611.495948082445</v>
+        <v>1748.994119672444</v>
       </c>
       <c r="N32" t="n">
-        <v>2247.797739360292</v>
+        <v>2276.805403309907</v>
       </c>
       <c r="O32" t="n">
-        <v>2785.607809239415</v>
+        <v>2716.845004202235</v>
       </c>
       <c r="P32" t="n">
-        <v>3133.795301370937</v>
+        <v>3065.032496333757</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152271</v>
+        <v>3249.878056474706</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152271</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491225</v>
+        <v>3278.19903452256</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448546</v>
+        <v>3171.900284432042</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281049</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382472</v>
+        <v>2808.444450270288</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748663</v>
+        <v>2554.64726758864</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079624</v>
+        <v>2282.396514871762</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.16845439813</v>
+        <v>2003.107658142427</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321163</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711338</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304543</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>388.2817734452719</v>
+        <v>499.4043430265827</v>
       </c>
       <c r="L33" t="n">
-        <v>871.8478593435851</v>
+        <v>982.9704289248959</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>982.9704289248959</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590193</v>
+        <v>341.687256555478</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229127</v>
+        <v>288.6839909715321</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233317</v>
+        <v>250.2527302241117</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804384</v>
+        <v>211.8957704333791</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913155</v>
+        <v>171.7716879964169</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886652</v>
+        <v>120.7194864459273</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806337</v>
+        <v>82.44278775748613</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259938</v>
+        <v>151.64600763549</v>
       </c>
       <c r="K34" t="n">
-        <v>229.0944335359357</v>
+        <v>348.3505842337304</v>
       </c>
       <c r="L34" t="n">
-        <v>501.7125810501213</v>
+        <v>556.1017744731967</v>
       </c>
       <c r="M34" t="n">
-        <v>688.0041593883853</v>
+        <v>857.2628882997592</v>
       </c>
       <c r="N34" t="n">
-        <v>871.1937934195946</v>
+        <v>1040.452522330968</v>
       </c>
       <c r="O34" t="n">
-        <v>1142.389068101689</v>
+        <v>1203.157289372676</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381857</v>
+        <v>1323.033455149255</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392293</v>
+        <v>1326.455651519306</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422775</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003228</v>
+        <v>1234.142283034562</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569366</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209172</v>
+        <v>947.3881441448267</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279</v>
+        <v>798.6106513157158</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569817</v>
+        <v>632.4821015969583</v>
       </c>
       <c r="X34" t="n">
-        <v>576.172975937869</v>
+        <v>515.6036317300062</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524165</v>
+        <v>409.6934228967144</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599515</v>
@@ -6968,7 +6968,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -6977,7 +6977,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7096,16 +7096,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
         <v>974.9038003296507</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7208,13 +7208,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7260,7 +7260,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,25 +7333,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1548.565607366782</v>
+        <v>1812.812015342702</v>
       </c>
       <c r="C41" t="n">
-        <v>1252.831357859846</v>
+        <v>1517.077765835765</v>
       </c>
       <c r="D41" t="n">
-        <v>964.831481066647</v>
+        <v>1229.077889042566</v>
       </c>
       <c r="E41" t="n">
-        <v>964.831481066647</v>
+        <v>923.9356161492442</v>
       </c>
       <c r="F41" t="n">
-        <v>645.3782945867578</v>
+        <v>604.4824296693553</v>
       </c>
       <c r="G41" t="n">
-        <v>329.656791064894</v>
+        <v>288.7609261474917</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0149926215177</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3036.88408213696</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2910.824731686509</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2752.513254111241</v>
+        <v>2947.644907630508</v>
       </c>
       <c r="V41" t="n">
-        <v>2507.847696804893</v>
+        <v>2702.97935032416</v>
       </c>
       <c r="W41" t="n">
-        <v>2234.289913763313</v>
+        <v>2429.42156728258</v>
       </c>
       <c r="X41" t="n">
-        <v>1942.278560686503</v>
+        <v>2137.41021420577</v>
       </c>
       <c r="Y41" t="n">
-        <v>1851.619101088046</v>
+        <v>1838.360757116504</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344875</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906097</v>
+        <v>402.8165060906087</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832575</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E43" t="n">
-        <v>286.507084832593</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F43" t="n">
-        <v>226.622402035699</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252776</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7723010769046</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822074</v>
+        <v>68.23195016743975</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676787</v>
+        <v>245.5691623529112</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170079</v>
+        <v>505.1989733022405</v>
       </c>
       <c r="M43" t="n">
-        <v>846.6083287308013</v>
+        <v>786.9927227160341</v>
       </c>
       <c r="N43" t="n">
-        <v>1125.30013383754</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O43" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792121</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237702</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860412</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033094</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191461</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423495</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234453</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557632</v>
+        <v>825.6570181557615</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288794</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356558</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1340.175609875973</v>
+        <v>1586.170216899326</v>
       </c>
       <c r="C44" t="n">
-        <v>1340.175609875973</v>
+        <v>1290.43596739239</v>
       </c>
       <c r="D44" t="n">
-        <v>1052.175733082774</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>747.0334601894517</v>
+        <v>697.2938177058682</v>
       </c>
       <c r="F44" t="n">
-        <v>427.5802737095628</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G44" t="n">
-        <v>111.8587701876991</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215176</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7676,22 +7676,22 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>2910.824731686509</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2752.513254111241</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
         <v>2507.847696804893</v>
       </c>
       <c r="W44" t="n">
-        <v>2234.289913763313</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>1942.278560686503</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y44" t="n">
-        <v>1643.229103597237</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="45">
@@ -7725,16 +7725,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344872</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906095</v>
+        <v>402.8165060906087</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832573</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325929</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356989</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252775</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690457</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822075</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676788</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170079</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
-        <v>846.6083287308013</v>
+        <v>846.608328730802</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.30013383754</v>
+        <v>1125.300133837541</v>
       </c>
       <c r="O46" t="n">
         <v>1383.507071954778</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792121</v>
+        <v>1598.885408806887</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237701</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860411</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033094</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191461</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423495</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234452</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557629</v>
+        <v>825.6570181557615</v>
       </c>
       <c r="X46" t="n">
-        <v>689.017947928879</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356554</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>680.859283310712</v>
+        <v>156.3375808259602</v>
       </c>
       <c r="N2" t="n">
-        <v>592.0486659291158</v>
+        <v>655.347565070562</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8064,16 +8064,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>623.5213537622966</v>
+        <v>255.2251050193875</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671514</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>207.8190693362861</v>
+        <v>598.9166326216668</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8219,19 +8219,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.859283310712</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>581.1447630039237</v>
+        <v>163.656769330584</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622966</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>489.1262098812133</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>525.0221998797317</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>416.5368911778199</v>
+        <v>363.2059172909298</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,10 +8465,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8535,10 +8535,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>402.0442134873031</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>507.3325231325139</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.2265410010273</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
@@ -8775,7 +8775,7 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,22 +9003,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>280.5807329993939</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294519</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>691.2645480167034</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>136.3731801151487</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9963,7 +9963,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>684.2495388215578</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>126.0381992661173</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>454.5321323046929</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>253.9636180770621</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>259.0521728817272</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>272.5068785254016</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>243.0318988390523</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>274.7297044279865</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643892</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812806</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>206.3060975159007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>243.5346609531178</v>
       </c>
       <c r="C44" t="n">
-        <v>292.776907011867</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>215.6200406684214</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>573150.5316348979</v>
+        <v>572248.2102142575</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>573150.5316348979</v>
+        <v>572248.2102142575</v>
       </c>
     </row>
     <row r="4">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>549358.115480027</v>
+        <v>549358.1154800272</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>721328.7123734273</v>
+      </c>
+      <c r="C2" t="n">
         <v>721328.712373427</v>
-      </c>
-      <c r="C2" t="n">
-        <v>721328.7123734271</v>
       </c>
       <c r="D2" t="n">
         <v>721328.712373427</v>
       </c>
       <c r="E2" t="n">
-        <v>677904.4907329526</v>
+        <v>677904.4907329525</v>
       </c>
       <c r="F2" t="n">
-        <v>677904.4907329531</v>
+        <v>677904.4907329524</v>
       </c>
       <c r="G2" t="n">
+        <v>721328.7123734276</v>
+      </c>
+      <c r="H2" t="n">
+        <v>721328.7123734276</v>
+      </c>
+      <c r="I2" t="n">
+        <v>721328.7123734275</v>
+      </c>
+      <c r="J2" t="n">
+        <v>721328.7123734273</v>
+      </c>
+      <c r="K2" t="n">
         <v>721328.7123734269</v>
       </c>
-      <c r="H2" t="n">
-        <v>721328.7123734273</v>
-      </c>
-      <c r="I2" t="n">
-        <v>721328.7123734273</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>721328.7123734282</v>
+      </c>
+      <c r="M2" t="n">
         <v>721328.7123734275</v>
       </c>
-      <c r="K2" t="n">
-        <v>721328.7123734273</v>
-      </c>
-      <c r="L2" t="n">
-        <v>721328.7123734268</v>
-      </c>
-      <c r="M2" t="n">
-        <v>721328.7123734276</v>
-      </c>
       <c r="N2" t="n">
-        <v>721328.7123734276</v>
+        <v>721328.7123734275</v>
       </c>
       <c r="O2" t="n">
-        <v>680860.3153380764</v>
+        <v>680860.3153380761</v>
       </c>
       <c r="P2" t="n">
-        <v>680860.3153380767</v>
+        <v>680860.3153380761</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343506</v>
+        <v>169649.0058765497</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602668</v>
+        <v>26460.41160941832</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.9558730143</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469664</v>
+        <v>215329.5897923933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670125</v>
+        <v>46725.80335481256</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436854</v>
+        <v>43782.97194555664</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.5598301567</v>
+        <v>18983.55983015681</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202745.5458432094</v>
+        <v>208555.3986987922</v>
       </c>
       <c r="C4" t="n">
-        <v>202745.5458432094</v>
+        <v>208555.3986987922</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26430,7 +26430,7 @@
         <v>135951.970348308</v>
       </c>
       <c r="G4" t="n">
-        <v>160556.2909917899</v>
+        <v>160556.29099179</v>
       </c>
       <c r="H4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>160983.928801512</v>
+        <v>160850.5341924572</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26454,10 +26454,10 @@
         <v>160556.29099179</v>
       </c>
       <c r="O4" t="n">
-        <v>137626.5862472993</v>
+        <v>137626.5862472994</v>
       </c>
       <c r="P4" t="n">
-        <v>137626.5862472993</v>
+        <v>137626.5862472994</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446766</v>
+        <v>60332.67530588337</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.4077825507</v>
+        <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.4077825507</v>
+        <v>55320.40778255072</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>274667.3081077175</v>
+        <v>278717.9801151325</v>
       </c>
       <c r="C6" t="n">
-        <v>452662.6052420683</v>
+        <v>448366.9859916819</v>
       </c>
       <c r="D6" t="n">
-        <v>444335.1598991912</v>
+        <v>436598.8706757996</v>
       </c>
       <c r="E6" t="n">
-        <v>356387.2997380234</v>
+        <v>356278.739183922</v>
       </c>
       <c r="F6" t="n">
-        <v>486840.230875736</v>
+        <v>486731.6703216341</v>
       </c>
       <c r="G6" t="n">
-        <v>473507.696193103</v>
+        <v>473507.6961931035</v>
       </c>
       <c r="H6" t="n">
-        <v>502602.6520661176</v>
+        <v>502602.6520661179</v>
       </c>
       <c r="I6" t="n">
-        <v>502602.6520661177</v>
+        <v>502602.6520661178</v>
       </c>
       <c r="J6" t="n">
-        <v>274517.0087163684</v>
+        <v>281033.2938709414</v>
       </c>
       <c r="K6" t="n">
-        <v>496362.8836633348</v>
+        <v>496362.8836633344</v>
       </c>
       <c r="L6" t="n">
-        <v>457468.5367307458</v>
+        <v>453419.699520275</v>
       </c>
       <c r="M6" t="n">
-        <v>459871.3751317494</v>
+        <v>458819.6801205612</v>
       </c>
       <c r="N6" t="n">
-        <v>502602.6520661179</v>
+        <v>502602.6520661178</v>
       </c>
       <c r="O6" t="n">
-        <v>468929.7614780696</v>
+        <v>468828.5904854807</v>
       </c>
       <c r="P6" t="n">
-        <v>487913.3213082266</v>
+        <v>487812.1503156375</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129847</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129847</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,7 +26802,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880679</v>
+        <v>831.877684307861</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126788</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087656</v>
+        <v>58.4072541935157</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165933</v>
+        <v>14.33013548902017</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769587</v>
+        <v>23.72944978769601</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129847</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631034</v>
+        <v>85.18305253651715</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559186</v>
+        <v>646.8007142757122</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455252</v>
+        <v>129.688382025732</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126788</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129847</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631034</v>
+        <v>85.18305253651715</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>161.4568406703746</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27442,10 +27442,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>329.4945912362011</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>131.686543929718</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>105.1383754893942</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>148.5413688324938</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>154.9986533628255</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27625,10 +27625,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>312.3643821966389</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>306.0792870168299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27701,16 +27701,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>39.63830103095358</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>7.511996990673154</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27792,10 +27792,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>43.34234837764238</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>194.63131634981</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>189.4475585094098</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>185.8308184025465</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>39.02878557500742</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28065,13 +28065,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>257.4184037529241</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28506,7 +28506,7 @@
         <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431675</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
         <v>93.99127447431644</v>
@@ -28515,7 +28515,7 @@
         <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431675</v>
       </c>
       <c r="N16" t="n">
         <v>93.99127447431644</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28752,13 +28752,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5.636002634529945</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28983,22 +28983,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="P22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5.636002634528666</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29217,22 +29217,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.63600263452949</v>
+      </c>
+      <c r="O25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>35.71049010668816</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901124</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901277</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
@@ -29545,7 +29545,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -29554,10 +29554,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.65052755599532</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29694,7 +29694,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="L31" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>24.86974620213891</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>98.75804948161078</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539251</v>
+        <v>44.06419228855199</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>58.99686212483792</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -30168,19 +30168,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.63600263452912</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30405,28 +30405,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30490,7 +30490,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J43" t="n">
-        <v>96.4668394702317</v>
+        <v>36.24905561693101</v>
       </c>
       <c r="K43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="M43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="N43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="O43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P43" t="n">
-        <v>36.2490556169345</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="R43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="S43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P46" t="n">
-        <v>36.24905561693402</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023173</v>
+        <v>36.24905561693122</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023173</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34699,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129847</v>
+        <v>6.612529228232923</v>
       </c>
       <c r="N2" t="n">
-        <v>442.9301745913317</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34784,16 +34784,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>531.1342317129847</v>
+        <v>162.8379829700756</v>
       </c>
       <c r="N3" t="n">
-        <v>531.1342317129847</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>115.1315104473972</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129847</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>432.0262716661396</v>
+        <v>14.53827799279996</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>531.1342317129847</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>403.7540970270467</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>432.3346409908428</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>263.2887214473282</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,10 +35185,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35255,10 +35255,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>311.9838666303849</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>414.9454010832019</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>188.193610950082</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215768</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35811,7 +35811,7 @@
         <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
-        <v>282.1645859271084</v>
+        <v>282.1645859271087</v>
       </c>
       <c r="N16" t="n">
         <v>279.0313088492752</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36048,13 +36048,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683762</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716088</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>171.4214974565487</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36291,10 +36291,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>51.00106726098203</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,13 +36522,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>223.8838015594801</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094883</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039224</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656005</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>598.8774259673912</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36841,7 +36841,7 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039233</v>
       </c>
       <c r="O29" t="n">
         <v>444.4844453457863</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>273.3632145670545</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.05004611020335</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611263</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>262.1407155526532</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>387.4781866339185</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>642.7290820988362</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>543.2424948273971</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.2990583649843</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>78.41684924923094</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>362.145010255381</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176607</v>
+        <v>85.95534635440515</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>198.6914915133742</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759451</v>
+        <v>209.849687110572</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>304.2031452793561</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>273.934620891004</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>180.0838982627961</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640776</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807263</v>
+        <v>6.174568144771941</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570417</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922517</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230237</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451905</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073106</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>157.3360917548927</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038419</v>
+        <v>99.92360348038436</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807266</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570417</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922517</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230237</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451905</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073106</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>157.3360917548922</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038422</v>
+        <v>39.70581962708371</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
